--- a/rebuild/IndicatorsGraphType.xlsx
+++ b/rebuild/IndicatorsGraphType.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t xml:space="preserve">IndicatorName</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t xml:space="preserve">Composite Measure of Wellbeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Extreme Poverty Cost of Basic Needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Extreme Poverty Dollar a Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth Yearly Ginis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth Top10 percent share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth Decadal Ginis</t>
   </si>
 </sst>
 </file>
@@ -343,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,33 +370,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,10 +1260,76 @@
         <v>4</v>
       </c>
     </row>
+    <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
